--- a/data/respirometry/deep/final_rates/600_rates.xlsx
+++ b/data/respirometry/deep/final_rates/600_rates.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V2">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z2">
-        <v>-0.1342354659509669</v>
+        <v>-0.1221848774731355</v>
       </c>
       <c r="AB2">
-        <v>-541.6051306110966</v>
+        <v>-492.9841458345362</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="AD2">
-        <v>-541.6051306110966</v>
+        <v>-492.9841458345362</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V3">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z3">
-        <v>-0.1994614960198879</v>
+        <v>-0.1859906850082795</v>
       </c>
       <c r="AB3">
-        <v>-1314.004194876784</v>
+        <v>-1225.261743171314</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="AD3">
-        <v>-1314.004194876784</v>
+        <v>-1225.261743171314</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V4">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z4">
-        <v>-0.1242048584758879</v>
+        <v>-0.1176290256075774</v>
       </c>
       <c r="AB4">
-        <v>-795.6660752343073</v>
+        <v>-753.5407735840416</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AD4">
-        <v>-795.6660752343073</v>
+        <v>-753.5407735840416</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V5">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z5">
-        <v>-0.1392250812862484</v>
+        <v>-0.1352576752579715</v>
       </c>
       <c r="AB5">
-        <v>-869.4978739095085</v>
+        <v>-844.7203620226234</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="AD5">
-        <v>-869.4978739095085</v>
+        <v>-844.7203620226234</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V6">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z6">
-        <v>-0.1006788502199363</v>
+        <v>-0.09541852482610373</v>
       </c>
       <c r="AB6">
-        <v>-628.9388985748162</v>
+        <v>-596.0777440014887</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="AD6">
-        <v>-628.9388985748162</v>
+        <v>-596.0777440014887</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V7">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z7">
-        <v>-0.1484547518726338</v>
+        <v>-0.1408857642960295</v>
       </c>
       <c r="AB7">
-        <v>-740.7768460387186</v>
+        <v>-703.0082285039052</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="AD7">
-        <v>-740.7768460387186</v>
+        <v>-703.0082285039052</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V8">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z8">
-        <v>-0.1859042899378915</v>
+        <v>-0.1744999617303195</v>
       </c>
       <c r="AB8">
-        <v>-749.8760088856494</v>
+        <v>-703.8747459606614</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="AD8">
-        <v>-749.8760088856494</v>
+        <v>-703.8747459606614</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.0007695944190057781</v>
+        <v>-0.0007693950938519304</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1278,16 +1278,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V10">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z10">
-        <v>0.1805807084604375</v>
+        <v>0.1643696141026553</v>
       </c>
       <c r="AB10">
-        <v>728.5961090736254</v>
+        <v>663.1885670742363</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AD10">
-        <v>728.5961090736254</v>
+        <v>663.1885670742363</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V11">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z11">
-        <v>0.130166788435283</v>
+        <v>0.121375857644185</v>
       </c>
       <c r="AB11">
-        <v>857.5073858893885</v>
+        <v>799.5948555671325</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="AD11">
-        <v>857.5073858893885</v>
+        <v>799.5948555671325</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V12">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z12">
-        <v>0.07913494309513688</v>
+        <v>0.07494526673124569</v>
       </c>
       <c r="AB12">
-        <v>506.9446586795261</v>
+        <v>480.1052629435983</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="AD12">
-        <v>506.9446586795261</v>
+        <v>480.1052629435983</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1539,16 +1539,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V13">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z13">
-        <v>0.1352565511666718</v>
+        <v>0.1314022337440853</v>
       </c>
       <c r="AB13">
-        <v>844.7133417717737</v>
+        <v>820.6420984774643</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="AD13">
-        <v>844.7133417717737</v>
+        <v>820.6420984774643</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V14">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z14">
-        <v>0.09468311809032229</v>
+        <v>0.08973606109305092</v>
       </c>
       <c r="AB14">
-        <v>591.4836718463491</v>
+        <v>560.5794991004969</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="AD14">
-        <v>591.4836718463491</v>
+        <v>560.5794991004969</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V15">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z15">
-        <v>0.1522529549318744</v>
+        <v>0.1444903154080865</v>
       </c>
       <c r="AB15">
-        <v>759.7295629261704</v>
+        <v>720.9946383054976</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="AD15">
-        <v>759.7295629261704</v>
+        <v>720.9946383054976</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V16">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z16">
-        <v>0.2299584517645014</v>
+        <v>0.2158516139991994</v>
       </c>
       <c r="AB16">
-        <v>927.5758298869688</v>
+        <v>870.6735432050632</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="AD16">
-        <v>927.5758298869688</v>
+        <v>870.6735432050632</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="T17">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.001158993998147961</v>
+        <v>-0.001158693818402261</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
